--- a/Testcases_supplier/Users/Manual testcases/Add New User testcases.xlsx
+++ b/Testcases_supplier/Users/Manual testcases/Add New User testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Users\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDAF61B6-9728-4500-AD7B-75E08593EE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39127D1-7EF1-4040-8638-2F78D44B6BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
   <si>
     <t>SL. No</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Successfully created user </t>
+  </si>
+  <si>
+    <t>Phone num (new)</t>
+  </si>
+  <si>
+    <t>It should  be set as +61 Australian code up to 20 characters</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,12 +517,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,10 +957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -968,21 +965,17 @@
         <v>9</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>12</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -991,21 +984,21 @@
         <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -1014,21 +1007,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1037,21 +1030,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1060,21 +1053,21 @@
         <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1083,21 +1076,21 @@
         <v>9</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1106,21 +1099,21 @@
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1129,15 +1122,38 @@
         <v>9</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1156,6 +1172,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE14CF829741B9429012C5963B61706A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d99969068973f7cc5e5b566623c8dfcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="014d4624-f59d-44c3-a333-b6c591c77b53" xmlns:ns4="7c8c12dd-75f8-42a3-90db-eecf595a7e04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5d897b2cd49fe6a7c02690428066b4c" ns3:_="" ns4:_="">
     <xsd:import namespace="014d4624-f59d-44c3-a333-b6c591c77b53"/>
@@ -1364,12 +1386,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804FAD21-D0F0-412F-B7EA-82D593B3C237}">
   <ds:schemaRefs>
@@ -1379,6 +1395,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811CFA6-AF37-4840-8EF8-2C3469316790}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="014d4624-f59d-44c3-a333-b6c591c77b53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7c8c12dd-75f8-42a3-90db-eecf595a7e04"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A7A394-CAC4-4A3A-9EC0-D861FAD22A32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1395,21 +1428,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4811CFA6-AF37-4840-8EF8-2C3469316790}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="014d4624-f59d-44c3-a333-b6c591c77b53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7c8c12dd-75f8-42a3-90db-eecf595a7e04"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testcases_supplier/Users/Manual testcases/Add New User testcases.xlsx
+++ b/Testcases_supplier/Users/Manual testcases/Add New User testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Users\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39127D1-7EF1-4040-8638-2F78D44B6BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADE9D89-992B-4504-93FB-8108DA712B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -363,10 +363,13 @@
     <t xml:space="preserve"> Successfully created user </t>
   </si>
   <si>
-    <t>Phone num (new)</t>
-  </si>
-  <si>
-    <t>It should  be set as +61 Australian code up to 20 characters</t>
+    <t xml:space="preserve">Phone num (new)Australian </t>
+  </si>
+  <si>
+    <t>It should  be set as +61 Australian code up 8 to 20 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should gets displayed </t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,8 +973,12 @@
       <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1163,21 +1170,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE14CF829741B9429012C5963B61706A" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d99969068973f7cc5e5b566623c8dfcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="014d4624-f59d-44c3-a333-b6c591c77b53" xmlns:ns4="7c8c12dd-75f8-42a3-90db-eecf595a7e04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5d897b2cd49fe6a7c02690428066b4c" ns3:_="" ns4:_="">
     <xsd:import namespace="014d4624-f59d-44c3-a333-b6c591c77b53"/>
@@ -1386,10 +1378,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804FAD21-D0F0-412F-B7EA-82D593B3C237}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A7A394-CAC4-4A3A-9EC0-D861FAD22A32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="014d4624-f59d-44c3-a333-b6c591c77b53"/>
+    <ds:schemaRef ds:uri="7c8c12dd-75f8-42a3-90db-eecf595a7e04"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1412,20 +1430,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A7A394-CAC4-4A3A-9EC0-D861FAD22A32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804FAD21-D0F0-412F-B7EA-82D593B3C237}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="014d4624-f59d-44c3-a333-b6c591c77b53"/>
-    <ds:schemaRef ds:uri="7c8c12dd-75f8-42a3-90db-eecf595a7e04"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>